--- a/samples.xlsx
+++ b/samples.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Реверсивный инжениринг</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Кабель</t>
+  </si>
+  <si>
+    <t>Шестерня планетарная</t>
+  </si>
+  <si>
+    <t>planetary gear 2.jpg</t>
+  </si>
+  <si>
+    <t>planetary gear 1.jpg</t>
   </si>
 </sst>
 </file>
@@ -397,10 +406,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -551,6 +560,28 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Реверсивный инжениринг</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Shesterny_startera.jpg</t>
   </si>
   <si>
-    <t>Shesterny.jpg</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Интерьер</t>
   </si>
   <si>
-    <t>Шестерня</t>
-  </si>
-  <si>
     <t>kabel.jpg</t>
   </si>
   <si>
@@ -120,6 +114,15 @@
   </si>
   <si>
     <t>planetary gear 1.jpg</t>
+  </si>
+  <si>
+    <t>modular_tape.jpg</t>
+  </si>
+  <si>
+    <t>modular_tape_2.jpg</t>
+  </si>
+  <si>
+    <t>Модульная лента</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -421,13 +424,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -435,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -446,21 +449,21 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -487,101 +490,112 @@
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -618,13 +632,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
